--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2776748.514606629</v>
+        <v>2774860.933090225</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>138.7156593449804</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>31.32258765632117</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>135.8442372525925</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>278.4190107396776</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>118.3167770327491</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>268.3528239515862</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>118.8460297402143</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448612</v>
@@ -1181,16 +1181,16 @@
         <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.7268375758688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>47.36189168600531</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151919</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>139.1537278750029</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056517</v>
+        <v>188.7255696453509</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583893</v>
+        <v>36.59749465797631</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056511</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
-        <v>160.1068879870777</v>
+        <v>111.9679966130657</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>37.56516399334321</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056517</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>97.89605820929735</v>
+        <v>251.7075876065288</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965513</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>40.47908514554133</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389789</v>
+        <v>74.64585437511838</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523556</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522968</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329011</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463134</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463134</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463131</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463134</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1391.972039273389</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1023.009522332977</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1023.009522332977</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1023.009522332977</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>612.0236175433699</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>194.0598094415568</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1782.111371249201</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1391.972039273389</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>529.7758821321493</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>379.6592427198135</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>211.4036268380754</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2255.520561484594</v>
+        <v>1359.546482223454</v>
       </c>
       <c r="C5" t="n">
-        <v>1886.558044544182</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y5" t="n">
-        <v>2642.120401548716</v>
+        <v>1359.546482223454</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>331.2032503805102</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>331.2032503805102</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508783</v>
+        <v>1272.344242153659</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.418712568371</v>
+        <v>903.3817252132471</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.153013961621</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>752.3647613633766</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>341.378856573769</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>327.45545251236</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4811,10 +4811,10 @@
         <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
         <v>2238.84331964269</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572905</v>
+        <v>1272.344242153659</v>
       </c>
     </row>
     <row r="9">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036447</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="11">
@@ -5018,13 +5018,13 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5033,19 +5033,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5054,34 +5054,34 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5106,19 +5106,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
@@ -5127,19 +5127,19 @@
         <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977054</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1009.867621687012</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>755.1831334811255</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441649</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>237.7764125461475</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5343,34 +5343,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>167.8887746690279</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277035</v>
+        <v>316.9584588710877</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2302.237516093322</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028596</v>
+        <v>560.9563154684961</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028596</v>
+        <v>392.0201325405892</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028593</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>97.2170914602859</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765191</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706321</v>
+        <v>933.2366688293932</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336716</v>
+        <v>933.2366688293932</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028604</v>
+        <v>742.6047802987358</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028596</v>
+        <v>742.6047802987358</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,40 +5525,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1150.953990714092</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765185</v>
+        <v>861.8253519276506</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706317</v>
+        <v>861.8253519276506</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336711</v>
+        <v>861.8253519276506</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>633.8358010296332</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S22" t="n">
-        <v>1226.117037839851</v>
+        <v>1274.742180641884</v>
       </c>
       <c r="T22" t="n">
-        <v>1226.117037839851</v>
+        <v>1050.95676543139</v>
       </c>
       <c r="U22" t="n">
-        <v>936.9883990534095</v>
+        <v>1050.95676543139</v>
       </c>
       <c r="V22" t="n">
-        <v>936.9883990534095</v>
+        <v>796.2722772255034</v>
       </c>
       <c r="W22" t="n">
-        <v>647.5712290164489</v>
+        <v>506.8551071885428</v>
       </c>
       <c r="X22" t="n">
-        <v>647.5712290164489</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>426.7786498729188</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>454.2145238948145</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>285.2783409669076</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>135.1617015545719</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6148,7 +6148,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706321</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336716</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>454.2145238948145</v>
       </c>
     </row>
     <row r="26">
@@ -6203,49 +6203,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2432.614441745106</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>566.6879222525853</v>
+        <v>434.3285960683723</v>
       </c>
       <c r="C28" t="n">
-        <v>397.7517393246784</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U28" t="n">
-        <v>976.3259379808424</v>
+        <v>909.8056634177894</v>
       </c>
       <c r="V28" t="n">
-        <v>976.3259379808424</v>
+        <v>655.1211752119025</v>
       </c>
       <c r="W28" t="n">
-        <v>976.3259379808424</v>
+        <v>655.1211752119025</v>
       </c>
       <c r="X28" t="n">
-        <v>748.336387082825</v>
+        <v>655.1211752119025</v>
       </c>
       <c r="Y28" t="n">
-        <v>748.336387082825</v>
+        <v>434.3285960683723</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6455,10 +6455,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6467,43 +6467,43 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>539.5926371926337</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>846.9127704725952</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542207</v>
+        <v>583.6915747572953</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542207</v>
+        <v>470.5162571107592</v>
       </c>
       <c r="D31" t="n">
-        <v>345.1766558232561</v>
+        <v>376.1604829797942</v>
       </c>
       <c r="E31" t="n">
-        <v>345.1766558232561</v>
+        <v>376.1604829797942</v>
       </c>
       <c r="F31" t="n">
-        <v>304.28869102978</v>
+        <v>285.0314007632547</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309716</v>
+        <v>172.6169443644459</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962057</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1712.787274970147</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1479.419501465076</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1280.49587854056</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981895</v>
+        <v>1046.83957378497</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652486</v>
+        <v>874.6108881683235</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030894</v>
+        <v>709.5791743061642</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6780,19 +6780,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,7 +6898,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010315</v>
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,19 +6926,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,19 +6947,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504503</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.529509210312</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,7 +7096,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7151,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504509</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,43 +7397,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108336</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7564,43 +7564,43 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649697</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859417</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,22 +7725,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8775,13 +8775,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>113.6026921294541</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305249</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504498</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.47535963978227</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>29.47535963978166</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627448</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,22 +9249,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>158.8724419039331</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>242.9997743936044</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504478</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>171.2966883299252</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>94.13752431970582</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>5.100663089359927</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>159.0121003135238</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>73.64859338270662</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,22 +10908,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>145.2351313103794</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>91.23759968302093</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>32.92248665775577</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709185</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338548</v>
+        <v>36.98408574368624</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>184.9500664004129</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338608</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24175,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>37.81392199652558</v>
+        <v>85.95281337053751</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>108.868798653226</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338548</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>188.34129418928</v>
+        <v>34.52976479204861</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801194</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>49.73870624883268</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>19.06471736386067</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571475</v>
+        <v>55.21598883571491</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-4.463097835850706e-14</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>783893.4803848274</v>
+        <v>783893.4803848272</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>814689.9817195719</v>
+        <v>814689.9817195717</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448195</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.3716448197</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448195</v>
-      </c>
       <c r="D2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="G2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="H2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="I2" t="n">
         <v>606095.0425934487</v>
       </c>
-      <c r="I2" t="n">
-        <v>606095.0425934485</v>
-      </c>
       <c r="J2" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="K2" t="n">
-        <v>630574.3128851691</v>
+        <v>630574.3128851686</v>
       </c>
       <c r="L2" t="n">
         <v>636307.37164482</v>
       </c>
       <c r="M2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.37164482</v>
       </c>
       <c r="N2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.37164482</v>
       </c>
       <c r="O2" t="n">
         <v>636307.3716448203</v>
       </c>
       <c r="P2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448203</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>2.171927646024903e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284578</v>
+        <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086674</v>
+        <v>10342.90680086684</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284576</v>
+        <v>44162.60530284569</v>
       </c>
     </row>
     <row r="4">
@@ -26424,31 +26424,31 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="H4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
+        <v>22174.60758687069</v>
+      </c>
+      <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="J4" t="n">
-        <v>22174.6075868707</v>
-      </c>
       <c r="K4" t="n">
-        <v>40339.23010106731</v>
+        <v>40339.23010106726</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819119</v>
@@ -26476,22 +26476,22 @@
         <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022281</v>
@@ -26500,13 +26500,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-202152.4534196585</v>
+        <v>-202152.4534196588</v>
       </c>
       <c r="C6" t="n">
-        <v>387815.4257948857</v>
+        <v>387815.4257948858</v>
       </c>
       <c r="D6" t="n">
-        <v>387815.4257948861</v>
+        <v>387815.425794886</v>
       </c>
       <c r="E6" t="n">
-        <v>-33226.92741903484</v>
+        <v>-33324.38654500678</v>
       </c>
       <c r="F6" t="n">
-        <v>491933.1090578613</v>
+        <v>491835.6499318891</v>
       </c>
       <c r="G6" t="n">
-        <v>491933.1090578614</v>
+        <v>491835.6499318889</v>
       </c>
       <c r="H6" t="n">
-        <v>491933.1090578614</v>
+        <v>491835.6499318889</v>
       </c>
       <c r="I6" t="n">
-        <v>491933.1090578613</v>
+        <v>491835.6499318892</v>
       </c>
       <c r="J6" t="n">
-        <v>315509.8898652687</v>
+        <v>315412.4307392964</v>
       </c>
       <c r="K6" t="n">
-        <v>449444.2689510331</v>
+        <v>449425.7752130985</v>
       </c>
       <c r="L6" t="n">
-        <v>483655.9641957367</v>
+        <v>483655.9641957366</v>
       </c>
       <c r="M6" t="n">
-        <v>359197.8557627666</v>
+        <v>359197.8557627663</v>
       </c>
       <c r="N6" t="n">
-        <v>493998.8709966036</v>
+        <v>493998.8709966035</v>
       </c>
       <c r="O6" t="n">
-        <v>493998.8709966036</v>
+        <v>493998.8709966037</v>
       </c>
       <c r="P6" t="n">
-        <v>449836.265693758</v>
+        <v>449836.2656937581</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.183716261483379e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.183716261483379e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.183716261483379e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.183716261483379e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26738,46 +26738,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.183716261483379e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.714909557531129e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108343</v>
+        <v>12.92863350108355</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -26966,16 +26966,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.183716261483379e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.714909557531129e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>185.2071134193767</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>23.94594161440352</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>115.111374990248</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27552,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>218.8388043680905</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>107.818927916376</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>28.11718561382004</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>168.53933734988</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>86.33021766909678</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>205.0767430241428</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060685</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>239.1611066505857</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28339,13 +28339,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,22 +35495,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>424.0270691799203</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541607</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109065</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>71.38553859468892</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>236.5687745713064</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951466</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>492.0670153019459</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556551</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187473</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>576.1943477916174</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556551</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109047</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221118</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>504.4912617279381</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>182.1505571047799</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>254.3583680453842</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412276</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043199</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>492.2066737115368</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>224.2240319706459</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>455.6595083608457</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,19 +37780,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>179.2506324680951</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>315.2861888988639</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
